--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c204_I2_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c204_I2_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2566" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -448,10 +460,10 @@
       <c r="I11">
         <f>((C11-C10)^2+(D11- D10)^2)^.5</f>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="2" t="s">
+      <c r="J11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L11" t="n">
@@ -495,28 +507,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="2">
+      <c r="A13" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B13" t="s" s="2">
+      <c r="B13" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C13" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s" s="2">
+      <c r="C13" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E13" t="s" s="2">
+      <c r="E13" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F13" t="s" s="2">
+      <c r="F13" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G13" t="s" s="2">
+      <c r="G13" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H13" t="s" s="2">
+      <c r="H13" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -541,28 +553,28 @@
       </c>
     </row>
     <row r="15">
-      <c r="B15" t="s" s="2">
+      <c r="B15" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C15" t="s" s="2">
+      <c r="C15" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D15" t="s" s="2">
+      <c r="D15" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E15" t="s" s="2">
+      <c r="E15" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F15" t="s" s="2">
+      <c r="F15" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G15" t="s" s="2">
+      <c r="G15" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H15" t="s" s="2">
+      <c r="H15" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I15" t="s" s="2">
+      <c r="I15" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -824,10 +836,10 @@
       <c r="I24">
         <f>((C24-C23)^2+(D24- D23)^2)^.5</f>
       </c>
-      <c r="J24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="2" t="s">
+      <c r="J24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L24" t="n">
@@ -871,28 +883,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s" s="2">
+      <c r="A26" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B26" t="s" s="2">
+      <c r="B26" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C26" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D26" t="s" s="2">
+      <c r="C26" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E26" t="s" s="2">
+      <c r="E26" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F26" t="s" s="2">
+      <c r="F26" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G26" t="s" s="2">
+      <c r="G26" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H26" t="s" s="2">
+      <c r="H26" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -917,28 +929,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="B28" t="s" s="2">
+      <c r="B28" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C28" t="s" s="2">
+      <c r="C28" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D28" t="s" s="2">
+      <c r="D28" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E28" t="s" s="2">
+      <c r="E28" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F28" t="s" s="2">
+      <c r="F28" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G28" t="s" s="2">
+      <c r="G28" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H28" t="s" s="2">
+      <c r="H28" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I28" t="s" s="2">
+      <c r="I28" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1461,10 +1473,10 @@
       <c r="I46">
         <f>((C46-C45)^2+(D46- D45)^2)^.5</f>
       </c>
-      <c r="J46" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K46" s="2" t="s">
+      <c r="J46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K46" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L46" t="n">
@@ -1508,28 +1520,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="2">
+      <c r="A48" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B48" t="s" s="2">
+      <c r="B48" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C48" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D48" t="s" s="2">
+      <c r="C48" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E48" t="s" s="2">
+      <c r="E48" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F48" t="s" s="2">
+      <c r="F48" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G48" t="s" s="2">
+      <c r="G48" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H48" t="s" s="2">
+      <c r="H48" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1554,28 +1566,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="B50" t="s" s="2">
+      <c r="B50" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C50" t="s" s="2">
+      <c r="C50" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D50" t="s" s="2">
+      <c r="D50" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E50" t="s" s="2">
+      <c r="E50" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F50" t="s" s="2">
+      <c r="F50" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G50" t="s" s="2">
+      <c r="G50" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H50" t="s" s="2">
+      <c r="H50" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I50" t="s" s="2">
+      <c r="I50" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1721,10 +1733,10 @@
       <c r="I55">
         <f>((C55-C54)^2+(D55- D54)^2)^.5</f>
       </c>
-      <c r="J55" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K55" s="2" t="s">
+      <c r="J55" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K55" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L55" t="n">
@@ -1768,28 +1780,28 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="s" s="2">
+      <c r="A57" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B57" t="s" s="2">
+      <c r="B57" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C57" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D57" t="s" s="2">
+      <c r="C57" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D57" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E57" t="s" s="2">
+      <c r="E57" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F57" t="s" s="2">
+      <c r="F57" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G57" t="s" s="2">
+      <c r="G57" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H57" t="s" s="2">
+      <c r="H57" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1814,28 +1826,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="B59" t="s" s="2">
+      <c r="B59" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C59" t="s" s="2">
+      <c r="C59" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D59" t="s" s="2">
+      <c r="D59" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E59" t="s" s="2">
+      <c r="E59" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F59" t="s" s="2">
+      <c r="F59" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G59" t="s" s="2">
+      <c r="G59" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H59" t="s" s="2">
+      <c r="H59" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I59" t="s" s="2">
+      <c r="I59" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1923,10 +1935,10 @@
       <c r="I62">
         <f>((C62-C61)^2+(D62- D61)^2)^.5</f>
       </c>
-      <c r="J62" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K62" s="2" t="s">
+      <c r="J62" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K62" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L62" t="n">
@@ -1970,28 +1982,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="s" s="2">
+      <c r="A64" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B64" t="s" s="2">
+      <c r="B64" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C64" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D64" t="s" s="2">
+      <c r="C64" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D64" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E64" t="s" s="2">
+      <c r="E64" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F64" t="s" s="2">
+      <c r="F64" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G64" t="s" s="2">
+      <c r="G64" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H64" t="s" s="2">
+      <c r="H64" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2016,28 +2028,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="B66" t="s" s="2">
+      <c r="B66" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C66" t="s" s="2">
+      <c r="C66" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D66" t="s" s="2">
+      <c r="D66" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E66" t="s" s="2">
+      <c r="E66" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F66" t="s" s="2">
+      <c r="F66" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G66" t="s" s="2">
+      <c r="G66" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H66" t="s" s="2">
+      <c r="H66" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I66" t="s" s="2">
+      <c r="I66" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2125,10 +2137,10 @@
       <c r="I69">
         <f>((C69-C68)^2+(D69- D68)^2)^.5</f>
       </c>
-      <c r="J69" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K69" s="2" t="s">
+      <c r="J69" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K69" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L69" t="n">
@@ -2172,28 +2184,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s" s="2">
+      <c r="A71" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B71" t="s" s="2">
+      <c r="B71" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C71" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D71" t="s" s="2">
+      <c r="C71" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E71" t="s" s="2">
+      <c r="E71" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F71" t="s" s="2">
+      <c r="F71" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G71" t="s" s="2">
+      <c r="G71" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H71" t="s" s="2">
+      <c r="H71" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2218,28 +2230,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="B73" t="s" s="2">
+      <c r="B73" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C73" t="s" s="2">
+      <c r="C73" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D73" t="s" s="2">
+      <c r="D73" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E73" t="s" s="2">
+      <c r="E73" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F73" t="s" s="2">
+      <c r="F73" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G73" t="s" s="2">
+      <c r="G73" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H73" t="s" s="2">
+      <c r="H73" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I73" t="s" s="2">
+      <c r="I73" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2327,10 +2339,10 @@
       <c r="I76">
         <f>((C76-C75)^2+(D76- D75)^2)^.5</f>
       </c>
-      <c r="J76" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K76" s="2" t="s">
+      <c r="J76" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K76" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L76" t="n">
@@ -2374,28 +2386,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="s" s="2">
+      <c r="A78" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B78" t="s" s="2">
+      <c r="B78" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C78" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D78" t="s" s="2">
+      <c r="C78" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D78" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E78" t="s" s="2">
+      <c r="E78" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F78" t="s" s="2">
+      <c r="F78" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G78" t="s" s="2">
+      <c r="G78" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H78" t="s" s="2">
+      <c r="H78" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2420,28 +2432,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="B80" t="s" s="2">
+      <c r="B80" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C80" t="s" s="2">
+      <c r="C80" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D80" t="s" s="2">
+      <c r="D80" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E80" t="s" s="2">
+      <c r="E80" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F80" t="s" s="2">
+      <c r="F80" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G80" t="s" s="2">
+      <c r="G80" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H80" t="s" s="2">
+      <c r="H80" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I80" t="s" s="2">
+      <c r="I80" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2558,10 +2570,10 @@
       <c r="I84">
         <f>((C84-C83)^2+(D84- D83)^2)^.5</f>
       </c>
-      <c r="J84" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K84" s="2" t="s">
+      <c r="J84" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K84" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L84" t="n">
@@ -2605,28 +2617,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="s" s="2">
+      <c r="A86" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B86" t="s" s="2">
+      <c r="B86" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C86" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D86" t="s" s="2">
+      <c r="C86" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D86" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E86" t="s" s="2">
+      <c r="E86" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F86" t="s" s="2">
+      <c r="F86" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G86" t="s" s="2">
+      <c r="G86" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H86" t="s" s="2">
+      <c r="H86" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2651,28 +2663,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="B88" t="s" s="2">
+      <c r="B88" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C88" t="s" s="2">
+      <c r="C88" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D88" t="s" s="2">
+      <c r="D88" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E88" t="s" s="2">
+      <c r="E88" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F88" t="s" s="2">
+      <c r="F88" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G88" t="s" s="2">
+      <c r="G88" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H88" t="s" s="2">
+      <c r="H88" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I88" t="s" s="2">
+      <c r="I88" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2760,10 +2772,10 @@
       <c r="I91">
         <f>((C91-C90)^2+(D91- D90)^2)^.5</f>
       </c>
-      <c r="J91" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K91" s="2" t="s">
+      <c r="J91" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K91" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L91" t="n">
@@ -2807,28 +2819,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="s" s="2">
+      <c r="A93" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B93" t="s" s="2">
+      <c r="B93" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C93" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D93" t="s" s="2">
+      <c r="C93" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D93" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E93" t="s" s="2">
+      <c r="E93" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F93" t="s" s="2">
+      <c r="F93" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G93" t="s" s="2">
+      <c r="G93" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H93" t="s" s="2">
+      <c r="H93" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2853,28 +2865,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="B95" t="s" s="2">
+      <c r="B95" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C95" t="s" s="2">
+      <c r="C95" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D95" t="s" s="2">
+      <c r="D95" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E95" t="s" s="2">
+      <c r="E95" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F95" t="s" s="2">
+      <c r="F95" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G95" t="s" s="2">
+      <c r="G95" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H95" t="s" s="2">
+      <c r="H95" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I95" t="s" s="2">
+      <c r="I95" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3223,10 +3235,10 @@
       <c r="I107">
         <f>((C107-C106)^2+(D107- D106)^2)^.5</f>
       </c>
-      <c r="J107" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K107" s="2" t="s">
+      <c r="J107" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K107" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L107" t="n">
@@ -3270,28 +3282,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="s" s="2">
+      <c r="A109" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B109" t="s" s="2">
+      <c r="B109" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C109" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D109" t="s" s="2">
+      <c r="C109" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D109" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E109" t="s" s="2">
+      <c r="E109" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F109" t="s" s="2">
+      <c r="F109" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G109" t="s" s="2">
+      <c r="G109" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H109" t="s" s="2">
+      <c r="H109" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3316,28 +3328,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="B111" t="s" s="2">
+      <c r="B111" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C111" t="s" s="2">
+      <c r="C111" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D111" t="s" s="2">
+      <c r="D111" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E111" t="s" s="2">
+      <c r="E111" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F111" t="s" s="2">
+      <c r="F111" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G111" t="s" s="2">
+      <c r="G111" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H111" t="s" s="2">
+      <c r="H111" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I111" t="s" s="2">
+      <c r="I111" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3483,10 +3495,10 @@
       <c r="I116">
         <f>((C116-C115)^2+(D116- D115)^2)^.5</f>
       </c>
-      <c r="J116" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K116" s="2" t="s">
+      <c r="J116" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K116" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L116" t="n">
@@ -3530,28 +3542,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="s" s="2">
+      <c r="A118" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B118" t="s" s="2">
+      <c r="B118" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C118" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D118" t="s" s="2">
+      <c r="C118" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D118" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E118" t="s" s="2">
+      <c r="E118" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F118" t="s" s="2">
+      <c r="F118" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G118" t="s" s="2">
+      <c r="G118" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H118" t="s" s="2">
+      <c r="H118" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3576,28 +3588,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="B120" t="s" s="2">
+      <c r="B120" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C120" t="s" s="2">
+      <c r="C120" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D120" t="s" s="2">
+      <c r="D120" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E120" t="s" s="2">
+      <c r="E120" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F120" t="s" s="2">
+      <c r="F120" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G120" t="s" s="2">
+      <c r="G120" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H120" t="s" s="2">
+      <c r="H120" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I120" t="s" s="2">
+      <c r="I120" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3714,10 +3726,10 @@
       <c r="I124">
         <f>((C124-C123)^2+(D124- D123)^2)^.5</f>
       </c>
-      <c r="J124" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K124" s="2" t="s">
+      <c r="J124" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K124" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L124" t="n">
@@ -3761,28 +3773,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="s" s="2">
+      <c r="A126" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B126" t="s" s="2">
+      <c r="B126" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C126" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D126" t="s" s="2">
+      <c r="C126" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D126" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E126" t="s" s="2">
+      <c r="E126" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F126" t="s" s="2">
+      <c r="F126" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G126" t="s" s="2">
+      <c r="G126" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H126" t="s" s="2">
+      <c r="H126" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3807,28 +3819,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="B128" t="s" s="2">
+      <c r="B128" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C128" t="s" s="2">
+      <c r="C128" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D128" t="s" s="2">
+      <c r="D128" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E128" t="s" s="2">
+      <c r="E128" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F128" t="s" s="2">
+      <c r="F128" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G128" t="s" s="2">
+      <c r="G128" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H128" t="s" s="2">
+      <c r="H128" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I128" t="s" s="2">
+      <c r="I128" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3974,10 +3986,10 @@
       <c r="I133">
         <f>((C133-C132)^2+(D133- D132)^2)^.5</f>
       </c>
-      <c r="J133" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K133" s="2" t="s">
+      <c r="J133" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K133" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L133" t="n">
@@ -4021,28 +4033,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="s" s="2">
+      <c r="A135" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B135" t="s" s="2">
+      <c r="B135" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C135" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D135" t="s" s="2">
+      <c r="C135" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D135" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E135" t="s" s="2">
+      <c r="E135" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F135" t="s" s="2">
+      <c r="F135" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G135" t="s" s="2">
+      <c r="G135" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H135" t="s" s="2">
+      <c r="H135" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4067,28 +4079,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C137" t="s" s="2">
+      <c r="C137" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D137" t="s" s="2">
+      <c r="D137" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I137" t="s" s="2">
+      <c r="I137" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4234,10 +4246,10 @@
       <c r="I142">
         <f>((C142-C141)^2+(D142- D141)^2)^.5</f>
       </c>
-      <c r="J142" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K142" s="2" t="s">
+      <c r="J142" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K142" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L142" t="n">
@@ -4281,28 +4293,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="s" s="2">
+      <c r="A144" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B144" t="s" s="2">
+      <c r="B144" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C144" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D144" t="s" s="2">
+      <c r="C144" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D144" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E144" t="s" s="2">
+      <c r="E144" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F144" t="s" s="2">
+      <c r="F144" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G144" t="s" s="2">
+      <c r="G144" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H144" t="s" s="2">
+      <c r="H144" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4327,28 +4339,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="B146" t="s" s="2">
+      <c r="B146" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C146" t="s" s="2">
+      <c r="C146" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D146" t="s" s="2">
+      <c r="D146" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E146" t="s" s="2">
+      <c r="E146" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F146" t="s" s="2">
+      <c r="F146" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G146" t="s" s="2">
+      <c r="G146" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H146" t="s" s="2">
+      <c r="H146" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I146" t="s" s="2">
+      <c r="I146" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4436,10 +4448,10 @@
       <c r="I149">
         <f>((C149-C148)^2+(D149- D148)^2)^.5</f>
       </c>
-      <c r="J149" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K149" s="2" t="s">
+      <c r="J149" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K149" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L149" t="n">
@@ -4483,28 +4495,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="s" s="2">
+      <c r="A151" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B151" t="s" s="2">
+      <c r="B151" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C151" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D151" t="s" s="2">
+      <c r="C151" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D151" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E151" t="s" s="2">
+      <c r="E151" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F151" t="s" s="2">
+      <c r="F151" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G151" t="s" s="2">
+      <c r="G151" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H151" t="s" s="2">
+      <c r="H151" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4529,28 +4541,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="B153" t="s" s="2">
+      <c r="B153" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C153" t="s" s="2">
+      <c r="C153" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D153" t="s" s="2">
+      <c r="D153" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E153" t="s" s="2">
+      <c r="E153" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F153" t="s" s="2">
+      <c r="F153" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G153" t="s" s="2">
+      <c r="G153" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H153" t="s" s="2">
+      <c r="H153" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I153" t="s" s="2">
+      <c r="I153" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4638,10 +4650,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K156" s="2" t="s">
+      <c r="J156" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K156" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
@@ -4685,28 +4697,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="s" s="2">
+      <c r="A158" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B158" t="s" s="2">
+      <c r="B158" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C158" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D158" t="s" s="2">
+      <c r="C158" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D158" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E158" t="s" s="2">
+      <c r="E158" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F158" t="s" s="2">
+      <c r="F158" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G158" t="s" s="2">
+      <c r="G158" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H158" t="s" s="2">
+      <c r="H158" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4731,28 +4743,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="B160" t="s" s="2">
+      <c r="B160" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C160" t="s" s="2">
+      <c r="C160" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D160" t="s" s="2">
+      <c r="D160" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E160" t="s" s="2">
+      <c r="E160" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F160" t="s" s="2">
+      <c r="F160" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G160" t="s" s="2">
+      <c r="G160" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H160" t="s" s="2">
+      <c r="H160" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I160" t="s" s="2">
+      <c r="I160" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4956,10 +4968,10 @@
       <c r="I167">
         <f>((C167-C166)^2+(D167- D166)^2)^.5</f>
       </c>
-      <c r="J167" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K167" s="2" t="s">
+      <c r="J167" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K167" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L167" t="n">
@@ -5003,28 +5015,28 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="s" s="2">
+      <c r="A169" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B169" t="s" s="2">
+      <c r="B169" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C169" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D169" t="s" s="2">
+      <c r="C169" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D169" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E169" t="s" s="2">
+      <c r="E169" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F169" t="s" s="2">
+      <c r="F169" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G169" t="s" s="2">
+      <c r="G169" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H169" t="s" s="2">
+      <c r="H169" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5049,28 +5061,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="B171" t="s" s="2">
+      <c r="B171" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C171" t="s" s="2">
+      <c r="C171" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D171" t="s" s="2">
+      <c r="D171" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E171" t="s" s="2">
+      <c r="E171" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F171" t="s" s="2">
+      <c r="F171" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G171" t="s" s="2">
+      <c r="G171" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H171" t="s" s="2">
+      <c r="H171" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I171" t="s" s="2">
+      <c r="I171" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5158,10 +5170,10 @@
       <c r="I174">
         <f>((C174-C173)^2+(D174- D173)^2)^.5</f>
       </c>
-      <c r="J174" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K174" s="2" t="s">
+      <c r="J174" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K174" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L174" t="n">
@@ -5205,28 +5217,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="s" s="2">
+      <c r="A176" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B176" t="s" s="2">
+      <c r="B176" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C176" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D176" t="s" s="2">
+      <c r="C176" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D176" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E176" t="s" s="2">
+      <c r="E176" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F176" t="s" s="2">
+      <c r="F176" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G176" t="s" s="2">
+      <c r="G176" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H176" t="s" s="2">
+      <c r="H176" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5251,28 +5263,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="B178" t="s" s="2">
+      <c r="B178" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C178" t="s" s="2">
+      <c r="C178" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D178" t="s" s="2">
+      <c r="D178" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E178" t="s" s="2">
+      <c r="E178" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F178" t="s" s="2">
+      <c r="F178" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G178" t="s" s="2">
+      <c r="G178" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H178" t="s" s="2">
+      <c r="H178" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I178" t="s" s="2">
+      <c r="I178" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5360,10 +5372,10 @@
       <c r="I181">
         <f>((C181-C180)^2+(D181- D180)^2)^.5</f>
       </c>
-      <c r="J181" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K181" s="2" t="s">
+      <c r="J181" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K181" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L181" t="n">
@@ -5407,28 +5419,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="s" s="2">
+      <c r="A183" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B183" t="s" s="2">
+      <c r="B183" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C183" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D183" t="s" s="2">
+      <c r="C183" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D183" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E183" t="s" s="2">
+      <c r="E183" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F183" t="s" s="2">
+      <c r="F183" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G183" t="s" s="2">
+      <c r="G183" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H183" t="s" s="2">
+      <c r="H183" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5453,28 +5465,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="B185" t="s" s="2">
+      <c r="B185" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C185" t="s" s="2">
+      <c r="C185" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D185" t="s" s="2">
+      <c r="D185" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E185" t="s" s="2">
+      <c r="E185" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F185" t="s" s="2">
+      <c r="F185" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G185" t="s" s="2">
+      <c r="G185" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H185" t="s" s="2">
+      <c r="H185" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I185" t="s" s="2">
+      <c r="I185" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5591,10 +5603,10 @@
       <c r="I189">
         <f>((C189-C188)^2+(D189- D188)^2)^.5</f>
       </c>
-      <c r="J189" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K189" s="2" t="s">
+      <c r="J189" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K189" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L189" t="n">
@@ -5638,28 +5650,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="s" s="2">
+      <c r="A191" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B191" t="s" s="2">
+      <c r="B191" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C191" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D191" t="s" s="2">
+      <c r="C191" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D191" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E191" t="s" s="2">
+      <c r="E191" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F191" t="s" s="2">
+      <c r="F191" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G191" t="s" s="2">
+      <c r="G191" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H191" t="s" s="2">
+      <c r="H191" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5684,28 +5696,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="B193" t="s" s="2">
+      <c r="B193" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C193" t="s" s="2">
+      <c r="C193" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D193" t="s" s="2">
+      <c r="D193" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E193" t="s" s="2">
+      <c r="E193" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F193" t="s" s="2">
+      <c r="F193" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G193" t="s" s="2">
+      <c r="G193" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H193" t="s" s="2">
+      <c r="H193" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I193" t="s" s="2">
+      <c r="I193" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5851,10 +5863,10 @@
       <c r="I198">
         <f>((C198-C197)^2+(D198- D197)^2)^.5</f>
       </c>
-      <c r="J198" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K198" s="2" t="s">
+      <c r="J198" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K198" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L198" t="n">
@@ -5898,28 +5910,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="s" s="2">
+      <c r="A200" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B200" t="s" s="2">
+      <c r="B200" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C200" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D200" t="s" s="2">
+      <c r="C200" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D200" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E200" t="s" s="2">
+      <c r="E200" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F200" t="s" s="2">
+      <c r="F200" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G200" t="s" s="2">
+      <c r="G200" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H200" t="s" s="2">
+      <c r="H200" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5944,28 +5956,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="B202" t="s" s="2">
+      <c r="B202" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C202" t="s" s="2">
+      <c r="C202" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D202" t="s" s="2">
+      <c r="D202" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E202" t="s" s="2">
+      <c r="E202" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F202" t="s" s="2">
+      <c r="F202" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G202" t="s" s="2">
+      <c r="G202" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H202" t="s" s="2">
+      <c r="H202" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I202" t="s" s="2">
+      <c r="I202" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6111,10 +6123,10 @@
       <c r="I207">
         <f>((C207-C206)^2+(D207- D206)^2)^.5</f>
       </c>
-      <c r="J207" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K207" s="2" t="s">
+      <c r="J207" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K207" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L207" t="n">
@@ -6158,28 +6170,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="s" s="2">
+      <c r="A209" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B209" t="s" s="2">
+      <c r="B209" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C209" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D209" t="s" s="2">
+      <c r="C209" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D209" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E209" t="s" s="2">
+      <c r="E209" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F209" t="s" s="2">
+      <c r="F209" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G209" t="s" s="2">
+      <c r="G209" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H209" t="s" s="2">
+      <c r="H209" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6204,28 +6216,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="B211" t="s" s="2">
+      <c r="B211" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C211" t="s" s="2">
+      <c r="C211" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D211" t="s" s="2">
+      <c r="D211" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E211" t="s" s="2">
+      <c r="E211" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F211" t="s" s="2">
+      <c r="F211" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G211" t="s" s="2">
+      <c r="G211" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H211" t="s" s="2">
+      <c r="H211" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I211" t="s" s="2">
+      <c r="I211" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6284,10 +6296,10 @@
       <c r="I213">
         <f>((C213-C212)^2+(D213- D212)^2)^.5</f>
       </c>
-      <c r="J213" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K213" s="2" t="s">
+      <c r="J213" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K213" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L213" t="n">
@@ -6331,28 +6343,28 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="s" s="2">
+      <c r="A215" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B215" t="s" s="2">
+      <c r="B215" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C215" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D215" t="s" s="2">
+      <c r="C215" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D215" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E215" t="s" s="2">
+      <c r="E215" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F215" t="s" s="2">
+      <c r="F215" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G215" t="s" s="2">
+      <c r="G215" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H215" t="s" s="2">
+      <c r="H215" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6377,28 +6389,28 @@
       </c>
     </row>
     <row r="217">
-      <c r="B217" t="s" s="2">
+      <c r="B217" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C217" t="s" s="2">
+      <c r="C217" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D217" t="s" s="2">
+      <c r="D217" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E217" t="s" s="2">
+      <c r="E217" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F217" t="s" s="2">
+      <c r="F217" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G217" t="s" s="2">
+      <c r="G217" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H217" t="s" s="2">
+      <c r="H217" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I217" t="s" s="2">
+      <c r="I217" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6457,10 +6469,10 @@
       <c r="I219">
         <f>((C219-C218)^2+(D219- D218)^2)^.5</f>
       </c>
-      <c r="J219" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K219" s="2" t="s">
+      <c r="J219" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K219" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L219" t="n">
@@ -6504,28 +6516,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="s" s="2">
+      <c r="A221" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B221" t="s" s="2">
+      <c r="B221" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C221" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D221" t="s" s="2">
+      <c r="C221" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D221" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E221" t="s" s="2">
+      <c r="E221" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F221" t="s" s="2">
+      <c r="F221" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G221" t="s" s="2">
+      <c r="G221" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H221" t="s" s="2">
+      <c r="H221" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6550,28 +6562,28 @@
       </c>
     </row>
     <row r="223">
-      <c r="B223" t="s" s="2">
+      <c r="B223" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C223" t="s" s="2">
+      <c r="C223" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D223" t="s" s="2">
+      <c r="D223" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E223" t="s" s="2">
+      <c r="E223" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F223" t="s" s="2">
+      <c r="F223" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G223" t="s" s="2">
+      <c r="G223" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H223" t="s" s="2">
+      <c r="H223" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I223" t="s" s="2">
+      <c r="I223" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6659,10 +6671,10 @@
       <c r="I226">
         <f>((C226-C225)^2+(D226- D225)^2)^.5</f>
       </c>
-      <c r="J226" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K226" s="2" t="s">
+      <c r="J226" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K226" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L226" t="n">
